--- a/Ngnix指南.xlsx
+++ b/Ngnix指南.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C5BA36B3-66E3-4C5D-B3CF-323CF0E5141A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BDDCBFCE-EEF2-491C-951F-AB633B69990E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="安装PCRE" sheetId="1" r:id="rId1"/>
@@ -266,10 +266,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -840,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB321E4-FCF3-4E37-9247-FB0E51D7E7E8}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -940,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3384069E-4EB0-4C90-8A45-F770EB7CBD95}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4101CCB1-33EE-472F-AB81-0DD31BD4F6ED}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1008,15 +1008,15 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="7"/>

--- a/Ngnix指南.xlsx
+++ b/Ngnix指南.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BDDCBFCE-EEF2-491C-951F-AB633B69990E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA3B1F6-F4A2-4CA5-85A8-8625A1D8D73B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="安装PCRE" sheetId="1" r:id="rId1"/>
     <sheet name="安装Ngnix" sheetId="2" r:id="rId2"/>
     <sheet name="启动与停止" sheetId="3" r:id="rId3"/>
     <sheet name="负载均衡配置" sheetId="4" r:id="rId4"/>
+    <sheet name="Docker安装（Nginx+Tomcat）" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>安装PCRE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,11 +192,51 @@
     <t>./nginx -t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>拉取镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动Tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this is tomcat1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拷贝回容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim index.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备Ngnix配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim nginx.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动Ngnix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run -p 82:80 --name nginx1 -v /home/ec2-user/nginx.conf:/etc/nginx/nginx.conf -d nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -278,8 +319,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{D245625D-1FC0-4A8C-85F1-9D6BE22E38DD}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -479,6 +548,898 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1261820" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C394D9BB-C51F-466D-A5F8-F8D2EDDE59A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="314325"/>
+          <a:ext cx="1261820" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>docker pull tomcat</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>docker pull nginx</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3141245" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57BF4DA8-4049-4BB1-83CA-BD6D3727E20D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1200150"/>
+          <a:ext cx="3141245" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>docker run -d -p 8081:8080 --name tomcat1 tomcat</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>docker run -d -p 8082:8080 --name tomcat2 tomcat</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>docker run -d -p 8083:8080 --name tomcat3 tomcat</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4373698" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{840A3AF9-A876-4C08-BD97-CECC6402B060}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="3057525"/>
+          <a:ext cx="4373698" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>docker cp index.jsp tomcat1:/usr/local/tomcat/webapps/ROOT/index.jsp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>docker cp index.jsp tomcat2:/usr/local/tomcat/webapps/ROOT/index.jsp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>docker cp index.jsp tomcat3:/usr/local/tomcat/webapps/ROOT/index.jsp</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4655826" cy="7842532"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21BBAE4A-F6B9-4E76-AFE7-0D6850810F34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="4438650"/>
+          <a:ext cx="4655826" cy="7842532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>user  nginx;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>worker_processes  1;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>error_log  /var/log/nginx/error.log warn;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pid        /var/run/nginx.pid;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>events {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    worker_connections  1024;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>http {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    server {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                listen 80;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                location  / {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                        proxy_pass http://blance;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    upstream blance{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            server 54.249.79.156:8081;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            server 54.249.79.156:8082;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            server 54.249.79.156:8083;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    include       /etc/nginx/mime.types;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    default_type  application/octet-stream;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    log_format  main  '$remote_addr - $remote_user [$time_local] "$request" '</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                      '$status $body_bytes_sent "$http_referer" '</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>                      '"$http_user_agent" "$http_x_forwarded_for"';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    access_log  /var/log/nginx/access.log  main;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    sendfile        on;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    #tcp_nopush     on;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    keepalive_timeout  65;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    #gzip  on;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    include /etc/nginx/conf.d/*.conf;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -940,7 +1901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3384069E-4EB0-4C90-8A45-F770EB7CBD95}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1096,4 +2057,75 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D480D969-268B-4F0C-B69B-95B90FBECD45}">
+  <dimension ref="A1:A71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>